--- a/published-data/fonds-solidarite/fds-2021-05-22/fonds-solidarite-volet-1-regional-categorie-juridique-latest.xlsx
+++ b/published-data/fonds-solidarite/fds-2021-05-22/fonds-solidarite-volet-1-regional-categorie-juridique-latest.xlsx
@@ -678,13 +678,13 @@
         <v>10</v>
       </c>
       <c r="C2">
-        <v>659998</v>
+        <v>661888</v>
       </c>
       <c r="D2">
-        <v>154930</v>
+        <v>154965</v>
       </c>
       <c r="E2">
-        <v>1185280509</v>
+        <v>1190913634</v>
       </c>
       <c r="F2" t="s">
         <v>11</v>
@@ -707,13 +707,13 @@
         <v>10</v>
       </c>
       <c r="C3">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="D3">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E3">
-        <v>1395232</v>
+        <v>1414307</v>
       </c>
       <c r="F3" t="s">
         <v>11</v>
@@ -736,13 +736,13 @@
         <v>10</v>
       </c>
       <c r="C4">
-        <v>884</v>
+        <v>892</v>
       </c>
       <c r="D4">
         <v>174</v>
       </c>
       <c r="E4">
-        <v>3648863</v>
+        <v>3701412</v>
       </c>
       <c r="F4" t="s">
         <v>11</v>
@@ -852,13 +852,13 @@
         <v>10</v>
       </c>
       <c r="C8">
-        <v>3230</v>
+        <v>3259</v>
       </c>
       <c r="D8">
         <v>611</v>
       </c>
       <c r="E8">
-        <v>21233955</v>
+        <v>21478243</v>
       </c>
       <c r="F8" t="s">
         <v>11</v>
@@ -910,13 +910,13 @@
         <v>10</v>
       </c>
       <c r="C10">
-        <v>282034</v>
+        <v>283344</v>
       </c>
       <c r="D10">
-        <v>63522</v>
+        <v>63537</v>
       </c>
       <c r="E10">
-        <v>1341326117</v>
+        <v>1353598205</v>
       </c>
       <c r="F10" t="s">
         <v>11</v>
@@ -939,13 +939,13 @@
         <v>10</v>
       </c>
       <c r="C11">
-        <v>862</v>
+        <v>872</v>
       </c>
       <c r="D11">
         <v>235</v>
       </c>
       <c r="E11">
-        <v>24304823</v>
+        <v>24894022</v>
       </c>
       <c r="F11" t="s">
         <v>11</v>
@@ -997,13 +997,13 @@
         <v>10</v>
       </c>
       <c r="C13">
-        <v>151171</v>
+        <v>151819</v>
       </c>
       <c r="D13">
-        <v>32605</v>
+        <v>32615</v>
       </c>
       <c r="E13">
-        <v>776343660</v>
+        <v>782531887</v>
       </c>
       <c r="F13" t="s">
         <v>11</v>
@@ -1084,13 +1084,13 @@
         <v>10</v>
       </c>
       <c r="C16">
-        <v>8479</v>
+        <v>8523</v>
       </c>
       <c r="D16">
-        <v>2915</v>
+        <v>2917</v>
       </c>
       <c r="E16">
-        <v>21233123</v>
+        <v>21439946</v>
       </c>
       <c r="F16" t="s">
         <v>11</v>
@@ -1171,13 +1171,13 @@
         <v>10</v>
       </c>
       <c r="C19">
-        <v>20724</v>
+        <v>20830</v>
       </c>
       <c r="D19">
-        <v>4095</v>
+        <v>4099</v>
       </c>
       <c r="E19">
-        <v>82203170</v>
+        <v>82880360</v>
       </c>
       <c r="F19" t="s">
         <v>11</v>
@@ -1229,13 +1229,13 @@
         <v>10</v>
       </c>
       <c r="C21">
-        <v>152828</v>
+        <v>153290</v>
       </c>
       <c r="D21">
-        <v>37792</v>
+        <v>37801</v>
       </c>
       <c r="E21">
-        <v>271728395</v>
+        <v>273053157</v>
       </c>
       <c r="F21" t="s">
         <v>12</v>
@@ -1374,13 +1374,13 @@
         <v>10</v>
       </c>
       <c r="C26">
-        <v>978</v>
+        <v>986</v>
       </c>
       <c r="D26">
         <v>168</v>
       </c>
       <c r="E26">
-        <v>4910065</v>
+        <v>4970884</v>
       </c>
       <c r="F26" t="s">
         <v>12</v>
@@ -1403,13 +1403,13 @@
         <v>10</v>
       </c>
       <c r="C27">
-        <v>74548</v>
+        <v>74922</v>
       </c>
       <c r="D27">
-        <v>17408</v>
+        <v>17412</v>
       </c>
       <c r="E27">
-        <v>334557447</v>
+        <v>337665837</v>
       </c>
       <c r="F27" t="s">
         <v>12</v>
@@ -1490,13 +1490,13 @@
         <v>10</v>
       </c>
       <c r="C30">
-        <v>28711</v>
+        <v>28836</v>
       </c>
       <c r="D30">
-        <v>6434</v>
+        <v>6437</v>
       </c>
       <c r="E30">
-        <v>136964129</v>
+        <v>138195505</v>
       </c>
       <c r="F30" t="s">
         <v>12</v>
@@ -1577,13 +1577,13 @@
         <v>10</v>
       </c>
       <c r="C33">
-        <v>3702</v>
+        <v>3718</v>
       </c>
       <c r="D33">
-        <v>1278</v>
+        <v>1280</v>
       </c>
       <c r="E33">
-        <v>13961018</v>
+        <v>14110489</v>
       </c>
       <c r="F33" t="s">
         <v>12</v>
@@ -1606,13 +1606,13 @@
         <v>10</v>
       </c>
       <c r="C34">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D34">
         <v>8</v>
       </c>
       <c r="E34">
-        <v>61391</v>
+        <v>62891</v>
       </c>
       <c r="F34" t="s">
         <v>12</v>
@@ -1635,13 +1635,13 @@
         <v>10</v>
       </c>
       <c r="C35">
-        <v>5388</v>
+        <v>5418</v>
       </c>
       <c r="D35">
         <v>1064</v>
       </c>
       <c r="E35">
-        <v>20952717</v>
+        <v>21114716</v>
       </c>
       <c r="F35" t="s">
         <v>12</v>
@@ -1664,13 +1664,13 @@
         <v>10</v>
       </c>
       <c r="C36">
-        <v>185021</v>
+        <v>185555</v>
       </c>
       <c r="D36">
-        <v>47902</v>
+        <v>47914</v>
       </c>
       <c r="E36">
-        <v>347249473</v>
+        <v>349069302</v>
       </c>
       <c r="F36" t="s">
         <v>13</v>
@@ -1722,13 +1722,13 @@
         <v>10</v>
       </c>
       <c r="C38">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D38">
         <v>41</v>
       </c>
       <c r="E38">
-        <v>650936</v>
+        <v>658466</v>
       </c>
       <c r="F38" t="s">
         <v>13</v>
@@ -1751,13 +1751,13 @@
         <v>10</v>
       </c>
       <c r="C39">
-        <v>3928</v>
+        <v>3966</v>
       </c>
       <c r="D39">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="E39">
-        <v>25532210</v>
+        <v>25897744</v>
       </c>
       <c r="F39" t="s">
         <v>13</v>
@@ -1809,13 +1809,13 @@
         <v>10</v>
       </c>
       <c r="C41">
-        <v>105885</v>
+        <v>106414</v>
       </c>
       <c r="D41">
-        <v>24053</v>
+        <v>24060</v>
       </c>
       <c r="E41">
-        <v>508781204</v>
+        <v>514040162</v>
       </c>
       <c r="F41" t="s">
         <v>13</v>
@@ -1896,13 +1896,13 @@
         <v>10</v>
       </c>
       <c r="C44">
-        <v>24097</v>
+        <v>24231</v>
       </c>
       <c r="D44">
         <v>5422</v>
       </c>
       <c r="E44">
-        <v>139991494</v>
+        <v>141637720</v>
       </c>
       <c r="F44" t="s">
         <v>13</v>
@@ -1954,13 +1954,13 @@
         <v>10</v>
       </c>
       <c r="C46">
-        <v>2521</v>
+        <v>2530</v>
       </c>
       <c r="D46">
         <v>826</v>
       </c>
       <c r="E46">
-        <v>6408669</v>
+        <v>6462295</v>
       </c>
       <c r="F46" t="s">
         <v>13</v>
@@ -1983,13 +1983,13 @@
         <v>10</v>
       </c>
       <c r="C47">
-        <v>7137</v>
+        <v>7186</v>
       </c>
       <c r="D47">
-        <v>1431</v>
+        <v>1433</v>
       </c>
       <c r="E47">
-        <v>29709258</v>
+        <v>30213429</v>
       </c>
       <c r="F47" t="s">
         <v>13</v>
@@ -2012,13 +2012,13 @@
         <v>10</v>
       </c>
       <c r="C48">
-        <v>131821</v>
+        <v>132167</v>
       </c>
       <c r="D48">
-        <v>33317</v>
+        <v>33319</v>
       </c>
       <c r="E48">
-        <v>235989269</v>
+        <v>236922078</v>
       </c>
       <c r="F48" t="s">
         <v>14</v>
@@ -2070,13 +2070,13 @@
         <v>10</v>
       </c>
       <c r="C50">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D50">
         <v>19</v>
       </c>
       <c r="E50">
-        <v>421182</v>
+        <v>423095</v>
       </c>
       <c r="F50" t="s">
         <v>14</v>
@@ -2128,13 +2128,13 @@
         <v>10</v>
       </c>
       <c r="C52">
-        <v>1379</v>
+        <v>1387</v>
       </c>
       <c r="D52">
         <v>257</v>
       </c>
       <c r="E52">
-        <v>7861721</v>
+        <v>7914457</v>
       </c>
       <c r="F52" t="s">
         <v>14</v>
@@ -2186,13 +2186,13 @@
         <v>10</v>
       </c>
       <c r="C54">
-        <v>62625</v>
+        <v>62861</v>
       </c>
       <c r="D54">
-        <v>14796</v>
+        <v>14799</v>
       </c>
       <c r="E54">
-        <v>269295604</v>
+        <v>271438955</v>
       </c>
       <c r="F54" t="s">
         <v>14</v>
@@ -2215,13 +2215,13 @@
         <v>10</v>
       </c>
       <c r="C55">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D55">
         <v>39</v>
       </c>
       <c r="E55">
-        <v>2820313</v>
+        <v>2948526</v>
       </c>
       <c r="F55" t="s">
         <v>14</v>
@@ -2273,13 +2273,13 @@
         <v>10</v>
       </c>
       <c r="C57">
-        <v>26011</v>
+        <v>26096</v>
       </c>
       <c r="D57">
-        <v>5916</v>
+        <v>5918</v>
       </c>
       <c r="E57">
-        <v>115253812</v>
+        <v>116031045</v>
       </c>
       <c r="F57" t="s">
         <v>14</v>
@@ -2331,13 +2331,13 @@
         <v>10</v>
       </c>
       <c r="C59">
-        <v>2937</v>
+        <v>2946</v>
       </c>
       <c r="D59">
         <v>905</v>
       </c>
       <c r="E59">
-        <v>10375403</v>
+        <v>10463545</v>
       </c>
       <c r="F59" t="s">
         <v>14</v>
@@ -2389,13 +2389,13 @@
         <v>10</v>
       </c>
       <c r="C61">
-        <v>4607</v>
+        <v>4617</v>
       </c>
       <c r="D61">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="E61">
-        <v>16235346</v>
+        <v>16287334</v>
       </c>
       <c r="F61" t="s">
         <v>14</v>
@@ -2447,13 +2447,13 @@
         <v>10</v>
       </c>
       <c r="C63">
-        <v>42932</v>
+        <v>43019</v>
       </c>
       <c r="D63">
-        <v>9483</v>
+        <v>9484</v>
       </c>
       <c r="E63">
-        <v>88348919</v>
+        <v>88641815</v>
       </c>
       <c r="F63" t="s">
         <v>15</v>
@@ -2534,13 +2534,13 @@
         <v>10</v>
       </c>
       <c r="C66">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D66">
         <v>36</v>
       </c>
       <c r="E66">
-        <v>1186886</v>
+        <v>1200557</v>
       </c>
       <c r="F66" t="s">
         <v>15</v>
@@ -2563,13 +2563,13 @@
         <v>10</v>
       </c>
       <c r="C67">
-        <v>22471</v>
+        <v>22564</v>
       </c>
       <c r="D67">
-        <v>4236</v>
+        <v>4237</v>
       </c>
       <c r="E67">
-        <v>127772052</v>
+        <v>128757003</v>
       </c>
       <c r="F67" t="s">
         <v>15</v>
@@ -2621,13 +2621,13 @@
         <v>10</v>
       </c>
       <c r="C69">
-        <v>14724</v>
+        <v>14780</v>
       </c>
       <c r="D69">
         <v>2863</v>
       </c>
       <c r="E69">
-        <v>76518894</v>
+        <v>76944365</v>
       </c>
       <c r="F69" t="s">
         <v>15</v>
@@ -2650,13 +2650,13 @@
         <v>10</v>
       </c>
       <c r="C70">
-        <v>1195</v>
+        <v>1200</v>
       </c>
       <c r="D70">
         <v>260</v>
       </c>
       <c r="E70">
-        <v>3357357</v>
+        <v>3376245</v>
       </c>
       <c r="F70" t="s">
         <v>15</v>
@@ -2679,13 +2679,13 @@
         <v>10</v>
       </c>
       <c r="C71">
-        <v>848</v>
+        <v>853</v>
       </c>
       <c r="D71">
         <v>153</v>
       </c>
       <c r="E71">
-        <v>2633738</v>
+        <v>2659218</v>
       </c>
       <c r="F71" t="s">
         <v>15</v>
@@ -2708,13 +2708,13 @@
         <v>10</v>
       </c>
       <c r="C72">
-        <v>286088</v>
+        <v>287040</v>
       </c>
       <c r="D72">
-        <v>71183</v>
+        <v>71206</v>
       </c>
       <c r="E72">
-        <v>533761436</v>
+        <v>536843845</v>
       </c>
       <c r="F72" t="s">
         <v>16</v>
@@ -2737,13 +2737,13 @@
         <v>10</v>
       </c>
       <c r="C73">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D73">
         <v>100</v>
       </c>
       <c r="E73">
-        <v>1384932</v>
+        <v>1385579</v>
       </c>
       <c r="F73" t="s">
         <v>16</v>
@@ -2766,13 +2766,13 @@
         <v>10</v>
       </c>
       <c r="C74">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D74">
         <v>45</v>
       </c>
       <c r="E74">
-        <v>907913</v>
+        <v>917913</v>
       </c>
       <c r="F74" t="s">
         <v>16</v>
@@ -2824,13 +2824,13 @@
         <v>10</v>
       </c>
       <c r="C76">
-        <v>1651</v>
+        <v>1665</v>
       </c>
       <c r="D76">
         <v>310</v>
       </c>
       <c r="E76">
-        <v>9591060</v>
+        <v>9723109</v>
       </c>
       <c r="F76" t="s">
         <v>16</v>
@@ -2853,13 +2853,13 @@
         <v>10</v>
       </c>
       <c r="C77">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D77">
         <v>9</v>
       </c>
       <c r="E77">
-        <v>412166</v>
+        <v>432666</v>
       </c>
       <c r="F77" t="s">
         <v>16</v>
@@ -2882,13 +2882,13 @@
         <v>10</v>
       </c>
       <c r="C78">
-        <v>146881</v>
+        <v>147605</v>
       </c>
       <c r="D78">
-        <v>34421</v>
+        <v>34431</v>
       </c>
       <c r="E78">
-        <v>661296360</v>
+        <v>667969874</v>
       </c>
       <c r="F78" t="s">
         <v>16</v>
@@ -2911,13 +2911,13 @@
         <v>10</v>
       </c>
       <c r="C79">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="D79">
         <v>121</v>
       </c>
       <c r="E79">
-        <v>9818254</v>
+        <v>9937212</v>
       </c>
       <c r="F79" t="s">
         <v>16</v>
@@ -2940,13 +2940,13 @@
         <v>10</v>
       </c>
       <c r="C80">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D80">
         <v>26</v>
       </c>
       <c r="E80">
-        <v>2509969</v>
+        <v>2545272</v>
       </c>
       <c r="F80" t="s">
         <v>16</v>
@@ -2969,13 +2969,13 @@
         <v>10</v>
       </c>
       <c r="C81">
-        <v>71749</v>
+        <v>72106</v>
       </c>
       <c r="D81">
-        <v>16343</v>
+        <v>16351</v>
       </c>
       <c r="E81">
-        <v>340021657</v>
+        <v>343374752</v>
       </c>
       <c r="F81" t="s">
         <v>16</v>
@@ -3027,13 +3027,13 @@
         <v>10</v>
       </c>
       <c r="C83">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="D83">
         <v>151</v>
       </c>
       <c r="E83">
-        <v>6860473</v>
+        <v>6873473</v>
       </c>
       <c r="F83" t="s">
         <v>16</v>
@@ -3056,13 +3056,13 @@
         <v>10</v>
       </c>
       <c r="C84">
-        <v>19792</v>
+        <v>19967</v>
       </c>
       <c r="D84">
-        <v>6620</v>
+        <v>6625</v>
       </c>
       <c r="E84">
-        <v>107444230</v>
+        <v>108793473</v>
       </c>
       <c r="F84" t="s">
         <v>16</v>
@@ -3114,13 +3114,13 @@
         <v>10</v>
       </c>
       <c r="C86">
-        <v>8453</v>
+        <v>8515</v>
       </c>
       <c r="D86">
         <v>1704</v>
       </c>
       <c r="E86">
-        <v>33045000</v>
+        <v>33470198</v>
       </c>
       <c r="F86" t="s">
         <v>16</v>
@@ -3172,13 +3172,13 @@
         <v>10</v>
       </c>
       <c r="C88">
-        <v>56065</v>
+        <v>56196</v>
       </c>
       <c r="D88">
-        <v>12162</v>
+        <v>12165</v>
       </c>
       <c r="E88">
-        <v>88014352</v>
+        <v>88302087</v>
       </c>
       <c r="F88" t="s">
         <v>17</v>
@@ -3259,13 +3259,13 @@
         <v>10</v>
       </c>
       <c r="C91">
-        <v>13245</v>
+        <v>13286</v>
       </c>
       <c r="D91">
-        <v>3236</v>
+        <v>3237</v>
       </c>
       <c r="E91">
-        <v>34578121</v>
+        <v>34818147</v>
       </c>
       <c r="F91" t="s">
         <v>17</v>
@@ -3317,13 +3317,13 @@
         <v>10</v>
       </c>
       <c r="C93">
-        <v>12411</v>
+        <v>12437</v>
       </c>
       <c r="D93">
         <v>2754</v>
       </c>
       <c r="E93">
-        <v>27241400</v>
+        <v>27318597</v>
       </c>
       <c r="F93" t="s">
         <v>17</v>
@@ -3346,13 +3346,13 @@
         <v>10</v>
       </c>
       <c r="C94">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="D94">
         <v>200</v>
       </c>
       <c r="E94">
-        <v>1422259</v>
+        <v>1423576</v>
       </c>
       <c r="F94" t="s">
         <v>17</v>
@@ -3375,13 +3375,13 @@
         <v>10</v>
       </c>
       <c r="C95">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="D95">
         <v>191</v>
       </c>
       <c r="E95">
-        <v>1332531</v>
+        <v>1338283</v>
       </c>
       <c r="F95" t="s">
         <v>17</v>
@@ -3404,13 +3404,13 @@
         <v>10</v>
       </c>
       <c r="C96">
-        <v>22524</v>
+        <v>22563</v>
       </c>
       <c r="D96">
         <v>3671</v>
       </c>
       <c r="E96">
-        <v>45571289</v>
+        <v>45628697</v>
       </c>
       <c r="F96" t="s">
         <v>18</v>
@@ -3433,13 +3433,13 @@
         <v>10</v>
       </c>
       <c r="C97">
-        <v>4890</v>
+        <v>4891</v>
       </c>
       <c r="D97">
         <v>889</v>
       </c>
       <c r="E97">
-        <v>12668588</v>
+        <v>12678588</v>
       </c>
       <c r="F97" t="s">
         <v>18</v>
@@ -3491,13 +3491,13 @@
         <v>10</v>
       </c>
       <c r="C99">
-        <v>7109</v>
+        <v>7114</v>
       </c>
       <c r="D99">
         <v>1234</v>
       </c>
       <c r="E99">
-        <v>17103783</v>
+        <v>17136783</v>
       </c>
       <c r="F99" t="s">
         <v>18</v>
@@ -3607,13 +3607,13 @@
         <v>10</v>
       </c>
       <c r="C103">
-        <v>278241</v>
+        <v>278926</v>
       </c>
       <c r="D103">
-        <v>67525</v>
+        <v>67536</v>
       </c>
       <c r="E103">
-        <v>481099227</v>
+        <v>482978001</v>
       </c>
       <c r="F103" t="s">
         <v>19</v>
@@ -3636,13 +3636,13 @@
         <v>10</v>
       </c>
       <c r="C104">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D104">
         <v>22</v>
       </c>
       <c r="E104">
-        <v>136605</v>
+        <v>146605</v>
       </c>
       <c r="F104" t="s">
         <v>19</v>
@@ -3665,13 +3665,13 @@
         <v>10</v>
       </c>
       <c r="C105">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D105">
         <v>37</v>
       </c>
       <c r="E105">
-        <v>337394</v>
+        <v>341042</v>
       </c>
       <c r="F105" t="s">
         <v>19</v>
@@ -3752,13 +3752,13 @@
         <v>10</v>
       </c>
       <c r="C108">
-        <v>3693</v>
+        <v>3733</v>
       </c>
       <c r="D108">
         <v>616</v>
       </c>
       <c r="E108">
-        <v>21023189</v>
+        <v>21318063</v>
       </c>
       <c r="F108" t="s">
         <v>19</v>
@@ -3810,13 +3810,13 @@
         <v>10</v>
       </c>
       <c r="C110">
-        <v>119410</v>
+        <v>119900</v>
       </c>
       <c r="D110">
-        <v>27622</v>
+        <v>27629</v>
       </c>
       <c r="E110">
-        <v>524414614</v>
+        <v>528677358</v>
       </c>
       <c r="F110" t="s">
         <v>19</v>
@@ -3839,13 +3839,13 @@
         <v>10</v>
       </c>
       <c r="C111">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="D111">
         <v>105</v>
       </c>
       <c r="E111">
-        <v>8089514</v>
+        <v>8141717</v>
       </c>
       <c r="F111" t="s">
         <v>19</v>
@@ -3897,13 +3897,13 @@
         <v>10</v>
       </c>
       <c r="C113">
-        <v>66234</v>
+        <v>66529</v>
       </c>
       <c r="D113">
-        <v>14201</v>
+        <v>14210</v>
       </c>
       <c r="E113">
-        <v>299091720</v>
+        <v>301905704</v>
       </c>
       <c r="F113" t="s">
         <v>19</v>
@@ -3955,13 +3955,13 @@
         <v>10</v>
       </c>
       <c r="C115">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D115">
         <v>19</v>
       </c>
       <c r="E115">
-        <v>600585</v>
+        <v>612052</v>
       </c>
       <c r="F115" t="s">
         <v>19</v>
@@ -3984,13 +3984,13 @@
         <v>10</v>
       </c>
       <c r="C116">
-        <v>3178</v>
+        <v>3185</v>
       </c>
       <c r="D116">
         <v>1073</v>
       </c>
       <c r="E116">
-        <v>9721018</v>
+        <v>9743064</v>
       </c>
       <c r="F116" t="s">
         <v>19</v>
@@ -4013,13 +4013,13 @@
         <v>10</v>
       </c>
       <c r="C117">
-        <v>6833</v>
+        <v>6862</v>
       </c>
       <c r="D117">
-        <v>1379</v>
+        <v>1380</v>
       </c>
       <c r="E117">
-        <v>24450087</v>
+        <v>24635869</v>
       </c>
       <c r="F117" t="s">
         <v>19</v>
@@ -4071,13 +4071,13 @@
         <v>10</v>
       </c>
       <c r="C119">
-        <v>1112817</v>
+        <v>1115039</v>
       </c>
       <c r="D119">
-        <v>218731</v>
+        <v>218762</v>
       </c>
       <c r="E119">
-        <v>1948776736</v>
+        <v>1953772463</v>
       </c>
       <c r="F119" t="s">
         <v>20</v>
@@ -4100,13 +4100,13 @@
         <v>10</v>
       </c>
       <c r="C120">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D120">
         <v>45</v>
       </c>
       <c r="E120">
-        <v>779946</v>
+        <v>789946</v>
       </c>
       <c r="F120" t="s">
         <v>20</v>
@@ -4129,13 +4129,13 @@
         <v>10</v>
       </c>
       <c r="C121">
-        <v>602</v>
+        <v>606</v>
       </c>
       <c r="D121">
         <v>128</v>
       </c>
       <c r="E121">
-        <v>3020063</v>
+        <v>3038253</v>
       </c>
       <c r="F121" t="s">
         <v>20</v>
@@ -4216,13 +4216,13 @@
         <v>10</v>
       </c>
       <c r="C124">
-        <v>6422</v>
+        <v>6467</v>
       </c>
       <c r="D124">
         <v>1275</v>
       </c>
       <c r="E124">
-        <v>65982490</v>
+        <v>66767036</v>
       </c>
       <c r="F124" t="s">
         <v>20</v>
@@ -4245,13 +4245,13 @@
         <v>10</v>
       </c>
       <c r="C125">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="D125">
         <v>34</v>
       </c>
       <c r="E125">
-        <v>2978774</v>
+        <v>3220768</v>
       </c>
       <c r="F125" t="s">
         <v>20</v>
@@ -4274,13 +4274,13 @@
         <v>10</v>
       </c>
       <c r="C126">
-        <v>499313</v>
+        <v>501125</v>
       </c>
       <c r="D126">
-        <v>103739</v>
+        <v>103763</v>
       </c>
       <c r="E126">
-        <v>2246635072</v>
+        <v>2263781747</v>
       </c>
       <c r="F126" t="s">
         <v>20</v>
@@ -4303,13 +4303,13 @@
         <v>10</v>
       </c>
       <c r="C127">
-        <v>2591</v>
+        <v>2604</v>
       </c>
       <c r="D127">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="E127">
-        <v>57766873</v>
+        <v>58345924</v>
       </c>
       <c r="F127" t="s">
         <v>20</v>
@@ -4361,13 +4361,13 @@
         <v>10</v>
       </c>
       <c r="C129">
-        <v>461267</v>
+        <v>462756</v>
       </c>
       <c r="D129">
-        <v>89028</v>
+        <v>89060</v>
       </c>
       <c r="E129">
-        <v>2071275801</v>
+        <v>2086119075</v>
       </c>
       <c r="F129" t="s">
         <v>20</v>
@@ -4419,13 +4419,13 @@
         <v>10</v>
       </c>
       <c r="C131">
-        <v>5908</v>
+        <v>5916</v>
       </c>
       <c r="D131">
         <v>1642</v>
       </c>
       <c r="E131">
-        <v>12842447</v>
+        <v>12853401</v>
       </c>
       <c r="F131" t="s">
         <v>20</v>
@@ -4448,13 +4448,13 @@
         <v>10</v>
       </c>
       <c r="C132">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D132">
         <v>8</v>
       </c>
       <c r="E132">
-        <v>234550</v>
+        <v>301830</v>
       </c>
       <c r="F132" t="s">
         <v>20</v>
@@ -4477,13 +4477,13 @@
         <v>10</v>
       </c>
       <c r="C133">
-        <v>19551</v>
+        <v>19627</v>
       </c>
       <c r="D133">
-        <v>4096</v>
+        <v>4099</v>
       </c>
       <c r="E133">
-        <v>78413059</v>
+        <v>78979607</v>
       </c>
       <c r="F133" t="s">
         <v>20</v>
@@ -4564,13 +4564,13 @@
         <v>10</v>
       </c>
       <c r="C136">
-        <v>66033</v>
+        <v>66143</v>
       </c>
       <c r="D136">
         <v>17374</v>
       </c>
       <c r="E136">
-        <v>97968475</v>
+        <v>98208045</v>
       </c>
       <c r="F136" t="s">
         <v>21</v>
@@ -4709,13 +4709,13 @@
         <v>10</v>
       </c>
       <c r="C141">
-        <v>19689</v>
+        <v>19734</v>
       </c>
       <c r="D141">
         <v>6025</v>
       </c>
       <c r="E141">
-        <v>50420280</v>
+        <v>50772758</v>
       </c>
       <c r="F141" t="s">
         <v>21</v>
@@ -4767,13 +4767,13 @@
         <v>10</v>
       </c>
       <c r="C143">
-        <v>5647</v>
+        <v>5660</v>
       </c>
       <c r="D143">
         <v>1588</v>
       </c>
       <c r="E143">
-        <v>14714541</v>
+        <v>14901460</v>
       </c>
       <c r="F143" t="s">
         <v>21</v>
@@ -4854,13 +4854,13 @@
         <v>10</v>
       </c>
       <c r="C146">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="D146">
         <v>169</v>
       </c>
       <c r="E146">
-        <v>883776</v>
+        <v>886276</v>
       </c>
       <c r="F146" t="s">
         <v>21</v>
@@ -4883,13 +4883,13 @@
         <v>10</v>
       </c>
       <c r="C147">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D147">
         <v>173</v>
       </c>
       <c r="E147">
-        <v>1525327</v>
+        <v>1535327</v>
       </c>
       <c r="F147" t="s">
         <v>21</v>
@@ -4912,13 +4912,13 @@
         <v>10</v>
       </c>
       <c r="C148">
-        <v>30720</v>
+        <v>30776</v>
       </c>
       <c r="D148">
-        <v>7070</v>
+        <v>7071</v>
       </c>
       <c r="E148">
-        <v>48026578</v>
+        <v>48157226</v>
       </c>
       <c r="F148" t="s">
         <v>22</v>
@@ -4999,13 +4999,13 @@
         <v>10</v>
       </c>
       <c r="C151">
-        <v>12827</v>
+        <v>12873</v>
       </c>
       <c r="D151">
-        <v>3177</v>
+        <v>3181</v>
       </c>
       <c r="E151">
-        <v>37319121</v>
+        <v>37734708</v>
       </c>
       <c r="F151" t="s">
         <v>22</v>
@@ -5057,13 +5057,13 @@
         <v>10</v>
       </c>
       <c r="C153">
-        <v>9114</v>
+        <v>9125</v>
       </c>
       <c r="D153">
-        <v>2068</v>
+        <v>2070</v>
       </c>
       <c r="E153">
-        <v>22948127</v>
+        <v>23016487</v>
       </c>
       <c r="F153" t="s">
         <v>22</v>
@@ -5086,13 +5086,13 @@
         <v>10</v>
       </c>
       <c r="C154">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="D154">
         <v>126</v>
       </c>
       <c r="E154">
-        <v>812661</v>
+        <v>813134</v>
       </c>
       <c r="F154" t="s">
         <v>22</v>
@@ -5115,13 +5115,13 @@
         <v>10</v>
       </c>
       <c r="C155">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="D155">
         <v>127</v>
       </c>
       <c r="E155">
-        <v>1180432</v>
+        <v>1191932</v>
       </c>
       <c r="F155" t="s">
         <v>22</v>
@@ -5144,13 +5144,13 @@
         <v>10</v>
       </c>
       <c r="C156">
-        <v>40906</v>
+        <v>40957</v>
       </c>
       <c r="D156">
         <v>5397</v>
       </c>
       <c r="E156">
-        <v>97046722</v>
+        <v>97130130</v>
       </c>
       <c r="F156" t="s">
         <v>23</v>
@@ -5173,13 +5173,13 @@
         <v>10</v>
       </c>
       <c r="C157">
-        <v>3864</v>
+        <v>3865</v>
       </c>
       <c r="D157">
         <v>677</v>
       </c>
       <c r="E157">
-        <v>10665163</v>
+        <v>10673740</v>
       </c>
       <c r="F157" t="s">
         <v>23</v>
@@ -5289,13 +5289,13 @@
         <v>10</v>
       </c>
       <c r="C161">
-        <v>171403</v>
+        <v>171911</v>
       </c>
       <c r="D161">
-        <v>42370</v>
+        <v>42381</v>
       </c>
       <c r="E161">
-        <v>317524856</v>
+        <v>319081444</v>
       </c>
       <c r="F161" t="s">
         <v>24</v>
@@ -5347,13 +5347,13 @@
         <v>10</v>
       </c>
       <c r="C163">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D163">
         <v>42</v>
       </c>
       <c r="E163">
-        <v>619858</v>
+        <v>625483</v>
       </c>
       <c r="F163" t="s">
         <v>24</v>
@@ -5434,13 +5434,13 @@
         <v>10</v>
       </c>
       <c r="C166">
-        <v>2812</v>
+        <v>2840</v>
       </c>
       <c r="D166">
         <v>496</v>
       </c>
       <c r="E166">
-        <v>18680170</v>
+        <v>18934072</v>
       </c>
       <c r="F166" t="s">
         <v>24</v>
@@ -5492,13 +5492,13 @@
         <v>10</v>
       </c>
       <c r="C168">
-        <v>79536</v>
+        <v>79930</v>
       </c>
       <c r="D168">
-        <v>18184</v>
+        <v>18191</v>
       </c>
       <c r="E168">
-        <v>371627607</v>
+        <v>375575069</v>
       </c>
       <c r="F168" t="s">
         <v>24</v>
@@ -5521,13 +5521,13 @@
         <v>10</v>
       </c>
       <c r="C169">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D169">
         <v>39</v>
       </c>
       <c r="E169">
-        <v>3140158</v>
+        <v>3153163</v>
       </c>
       <c r="F169" t="s">
         <v>24</v>
@@ -5550,13 +5550,13 @@
         <v>10</v>
       </c>
       <c r="C170">
-        <v>33025</v>
+        <v>33182</v>
       </c>
       <c r="D170">
-        <v>7068</v>
+        <v>7072</v>
       </c>
       <c r="E170">
-        <v>167452919</v>
+        <v>168881739</v>
       </c>
       <c r="F170" t="s">
         <v>24</v>
@@ -5608,13 +5608,13 @@
         <v>10</v>
       </c>
       <c r="C172">
-        <v>2288</v>
+        <v>2292</v>
       </c>
       <c r="D172">
         <v>679</v>
       </c>
       <c r="E172">
-        <v>5528213</v>
+        <v>5541812</v>
       </c>
       <c r="F172" t="s">
         <v>24</v>
@@ -5637,13 +5637,13 @@
         <v>10</v>
       </c>
       <c r="C173">
-        <v>5418</v>
+        <v>5446</v>
       </c>
       <c r="D173">
-        <v>1132</v>
+        <v>1133</v>
       </c>
       <c r="E173">
-        <v>20393198</v>
+        <v>20540880</v>
       </c>
       <c r="F173" t="s">
         <v>24</v>
@@ -5666,13 +5666,13 @@
         <v>10</v>
       </c>
       <c r="C174">
-        <v>451643</v>
+        <v>452865</v>
       </c>
       <c r="D174">
-        <v>114644</v>
+        <v>114660</v>
       </c>
       <c r="E174">
-        <v>766553052</v>
+        <v>769720429</v>
       </c>
       <c r="F174" t="s">
         <v>25</v>
@@ -5695,13 +5695,13 @@
         <v>10</v>
       </c>
       <c r="C175">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="D175">
         <v>67</v>
       </c>
       <c r="E175">
-        <v>611306</v>
+        <v>618991</v>
       </c>
       <c r="F175" t="s">
         <v>25</v>
@@ -5724,13 +5724,13 @@
         <v>10</v>
       </c>
       <c r="C176">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="D176">
         <v>95</v>
       </c>
       <c r="E176">
-        <v>1110512</v>
+        <v>1112947</v>
       </c>
       <c r="F176" t="s">
         <v>25</v>
@@ -5840,13 +5840,13 @@
         <v>10</v>
       </c>
       <c r="C180">
-        <v>2885</v>
+        <v>2904</v>
       </c>
       <c r="D180">
         <v>560</v>
       </c>
       <c r="E180">
-        <v>17438375</v>
+        <v>17587927</v>
       </c>
       <c r="F180" t="s">
         <v>25</v>
@@ -5898,13 +5898,13 @@
         <v>10</v>
       </c>
       <c r="C182">
-        <v>196560</v>
+        <v>197364</v>
       </c>
       <c r="D182">
-        <v>45903</v>
+        <v>45911</v>
       </c>
       <c r="E182">
-        <v>889999396</v>
+        <v>897245996</v>
       </c>
       <c r="F182" t="s">
         <v>25</v>
@@ -5927,13 +5927,13 @@
         <v>10</v>
       </c>
       <c r="C183">
-        <v>518</v>
+        <v>523</v>
       </c>
       <c r="D183">
         <v>125</v>
       </c>
       <c r="E183">
-        <v>11918623</v>
+        <v>11989405</v>
       </c>
       <c r="F183" t="s">
         <v>25</v>
@@ -5985,13 +5985,13 @@
         <v>10</v>
       </c>
       <c r="C185">
-        <v>82134</v>
+        <v>82424</v>
       </c>
       <c r="D185">
-        <v>17999</v>
+        <v>18004</v>
       </c>
       <c r="E185">
-        <v>394096945</v>
+        <v>396701096</v>
       </c>
       <c r="F185" t="s">
         <v>25</v>
@@ -6072,13 +6072,13 @@
         <v>10</v>
       </c>
       <c r="C188">
-        <v>12761</v>
+        <v>12826</v>
       </c>
       <c r="D188">
-        <v>4107</v>
+        <v>4108</v>
       </c>
       <c r="E188">
-        <v>54384041</v>
+        <v>54888635</v>
       </c>
       <c r="F188" t="s">
         <v>25</v>
@@ -6130,13 +6130,13 @@
         <v>10</v>
       </c>
       <c r="C190">
-        <v>14191</v>
+        <v>14254</v>
       </c>
       <c r="D190">
-        <v>2913</v>
+        <v>2915</v>
       </c>
       <c r="E190">
-        <v>48602773</v>
+        <v>48926015</v>
       </c>
       <c r="F190" t="s">
         <v>25</v>
@@ -6188,13 +6188,13 @@
         <v>10</v>
       </c>
       <c r="C192">
-        <v>521735</v>
+        <v>523017</v>
       </c>
       <c r="D192">
-        <v>126321</v>
+        <v>126344</v>
       </c>
       <c r="E192">
-        <v>851322568</v>
+        <v>854702453</v>
       </c>
       <c r="F192" t="s">
         <v>26</v>
@@ -6246,13 +6246,13 @@
         <v>10</v>
       </c>
       <c r="C194">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="D194">
         <v>134</v>
       </c>
       <c r="E194">
-        <v>1875109</v>
+        <v>1887891</v>
       </c>
       <c r="F194" t="s">
         <v>26</v>
@@ -6362,13 +6362,13 @@
         <v>10</v>
       </c>
       <c r="C198">
-        <v>1957</v>
+        <v>1974</v>
       </c>
       <c r="D198">
         <v>368</v>
       </c>
       <c r="E198">
-        <v>12691947</v>
+        <v>12830178</v>
       </c>
       <c r="F198" t="s">
         <v>26</v>
@@ -6420,13 +6420,13 @@
         <v>10</v>
       </c>
       <c r="C200">
-        <v>221805</v>
+        <v>222744</v>
       </c>
       <c r="D200">
-        <v>49347</v>
+        <v>49355</v>
       </c>
       <c r="E200">
-        <v>966030822</v>
+        <v>973891512</v>
       </c>
       <c r="F200" t="s">
         <v>26</v>
@@ -6449,13 +6449,13 @@
         <v>10</v>
       </c>
       <c r="C201">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="D201">
         <v>136</v>
       </c>
       <c r="E201">
-        <v>13081042</v>
+        <v>13150660</v>
       </c>
       <c r="F201" t="s">
         <v>26</v>
@@ -6478,13 +6478,13 @@
         <v>10</v>
       </c>
       <c r="C202">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D202">
         <v>14</v>
       </c>
       <c r="E202">
-        <v>1981827</v>
+        <v>2086220</v>
       </c>
       <c r="F202" t="s">
         <v>26</v>
@@ -6507,13 +6507,13 @@
         <v>10</v>
       </c>
       <c r="C203">
-        <v>127821</v>
+        <v>128320</v>
       </c>
       <c r="D203">
-        <v>26741</v>
+        <v>26745</v>
       </c>
       <c r="E203">
-        <v>551830688</v>
+        <v>556254161</v>
       </c>
       <c r="F203" t="s">
         <v>26</v>
@@ -6536,13 +6536,13 @@
         <v>10</v>
       </c>
       <c r="C204">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D204">
         <v>17</v>
       </c>
       <c r="E204">
-        <v>361867</v>
+        <v>371867</v>
       </c>
       <c r="F204" t="s">
         <v>26</v>
@@ -6594,13 +6594,13 @@
         <v>10</v>
       </c>
       <c r="C206">
-        <v>10037</v>
+        <v>10084</v>
       </c>
       <c r="D206">
-        <v>3164</v>
+        <v>3166</v>
       </c>
       <c r="E206">
-        <v>30738441</v>
+        <v>30994816</v>
       </c>
       <c r="F206" t="s">
         <v>26</v>
@@ -6681,13 +6681,13 @@
         <v>10</v>
       </c>
       <c r="C209">
-        <v>18096</v>
+        <v>18175</v>
       </c>
       <c r="D209">
-        <v>3456</v>
+        <v>3459</v>
       </c>
       <c r="E209">
-        <v>59885133</v>
+        <v>60350642</v>
       </c>
       <c r="F209" t="s">
         <v>26</v>
@@ -6739,13 +6739,13 @@
         <v>10</v>
       </c>
       <c r="C211">
-        <v>201417</v>
+        <v>201978</v>
       </c>
       <c r="D211">
-        <v>52095</v>
+        <v>52105</v>
       </c>
       <c r="E211">
-        <v>351849346</v>
+        <v>353453862</v>
       </c>
       <c r="F211" t="s">
         <v>27</v>
@@ -6855,13 +6855,13 @@
         <v>10</v>
       </c>
       <c r="C215">
-        <v>2414</v>
+        <v>2433</v>
       </c>
       <c r="D215">
         <v>419</v>
       </c>
       <c r="E215">
-        <v>15320810</v>
+        <v>15505607</v>
       </c>
       <c r="F215" t="s">
         <v>27</v>
@@ -6884,13 +6884,13 @@
         <v>10</v>
       </c>
       <c r="C216">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D216">
         <v>3</v>
       </c>
       <c r="E216">
-        <v>144446</v>
+        <v>148071</v>
       </c>
       <c r="F216" t="s">
         <v>27</v>
@@ -6913,13 +6913,13 @@
         <v>10</v>
       </c>
       <c r="C217">
-        <v>112327</v>
+        <v>112809</v>
       </c>
       <c r="D217">
-        <v>26965</v>
+        <v>26970</v>
       </c>
       <c r="E217">
-        <v>512073239</v>
+        <v>516772267</v>
       </c>
       <c r="F217" t="s">
         <v>27</v>
@@ -6942,13 +6942,13 @@
         <v>10</v>
       </c>
       <c r="C218">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="D218">
         <v>53</v>
       </c>
       <c r="E218">
-        <v>4027927</v>
+        <v>4123959</v>
       </c>
       <c r="F218" t="s">
         <v>27</v>
@@ -7000,13 +7000,13 @@
         <v>10</v>
       </c>
       <c r="C220">
-        <v>31948</v>
+        <v>32092</v>
       </c>
       <c r="D220">
-        <v>7068</v>
+        <v>7070</v>
       </c>
       <c r="E220">
-        <v>170049178</v>
+        <v>171435148</v>
       </c>
       <c r="F220" t="s">
         <v>27</v>
@@ -7058,13 +7058,13 @@
         <v>10</v>
       </c>
       <c r="C222">
-        <v>3723</v>
+        <v>3743</v>
       </c>
       <c r="D222">
-        <v>1246</v>
+        <v>1248</v>
       </c>
       <c r="E222">
-        <v>12543817</v>
+        <v>12742605</v>
       </c>
       <c r="F222" t="s">
         <v>27</v>
@@ -7116,13 +7116,13 @@
         <v>10</v>
       </c>
       <c r="C224">
-        <v>7414</v>
+        <v>7451</v>
       </c>
       <c r="D224">
-        <v>1522</v>
+        <v>1523</v>
       </c>
       <c r="E224">
-        <v>28431889</v>
+        <v>28697325</v>
       </c>
       <c r="F224" t="s">
         <v>27</v>
@@ -7145,13 +7145,13 @@
         <v>10</v>
       </c>
       <c r="C225">
-        <v>534110</v>
+        <v>535463</v>
       </c>
       <c r="D225">
-        <v>120488</v>
+        <v>120514</v>
       </c>
       <c r="E225">
-        <v>897587292</v>
+        <v>900768405</v>
       </c>
       <c r="F225" t="s">
         <v>28</v>
@@ -7174,13 +7174,13 @@
         <v>10</v>
       </c>
       <c r="C226">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D226">
         <v>90</v>
       </c>
       <c r="E226">
-        <v>908327</v>
+        <v>918327</v>
       </c>
       <c r="F226" t="s">
         <v>28</v>
@@ -7203,13 +7203,13 @@
         <v>10</v>
       </c>
       <c r="C227">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="D227">
         <v>127</v>
       </c>
       <c r="E227">
-        <v>2170810</v>
+        <v>2180810</v>
       </c>
       <c r="F227" t="s">
         <v>28</v>
@@ -7319,13 +7319,13 @@
         <v>10</v>
       </c>
       <c r="C231">
-        <v>3383</v>
+        <v>3404</v>
       </c>
       <c r="D231">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="E231">
-        <v>24315656</v>
+        <v>24614907</v>
       </c>
       <c r="F231" t="s">
         <v>28</v>
@@ -7377,13 +7377,13 @@
         <v>10</v>
       </c>
       <c r="C233">
-        <v>235390</v>
+        <v>236337</v>
       </c>
       <c r="D233">
-        <v>49377</v>
+        <v>49388</v>
       </c>
       <c r="E233">
-        <v>1078625551</v>
+        <v>1086609677</v>
       </c>
       <c r="F233" t="s">
         <v>28</v>
@@ -7406,13 +7406,13 @@
         <v>10</v>
       </c>
       <c r="C234">
-        <v>526</v>
+        <v>535</v>
       </c>
       <c r="D234">
         <v>142</v>
       </c>
       <c r="E234">
-        <v>14108965</v>
+        <v>14212843</v>
       </c>
       <c r="F234" t="s">
         <v>28</v>
@@ -7464,13 +7464,13 @@
         <v>10</v>
       </c>
       <c r="C236">
-        <v>169883</v>
+        <v>170530</v>
       </c>
       <c r="D236">
-        <v>33541</v>
+        <v>33557</v>
       </c>
       <c r="E236">
-        <v>761694853</v>
+        <v>766894610</v>
       </c>
       <c r="F236" t="s">
         <v>28</v>
@@ -7551,13 +7551,13 @@
         <v>10</v>
       </c>
       <c r="C239">
-        <v>5944</v>
+        <v>5965</v>
       </c>
       <c r="D239">
-        <v>1774</v>
+        <v>1778</v>
       </c>
       <c r="E239">
-        <v>20217209</v>
+        <v>20417679</v>
       </c>
       <c r="F239" t="s">
         <v>28</v>
@@ -7638,13 +7638,13 @@
         <v>10</v>
       </c>
       <c r="C242">
-        <v>14440</v>
+        <v>14498</v>
       </c>
       <c r="D242">
         <v>2670</v>
       </c>
       <c r="E242">
-        <v>49493444</v>
+        <v>49898145</v>
       </c>
       <c r="F242" t="s">
         <v>28</v>
